--- a/biology/Zoologie/Clymeniida/Clymeniida.xlsx
+++ b/biology/Zoologie/Clymeniida/Clymeniida.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Clymeniida (clyménies en français) forment un ordre éteint d'Ammonoidea caractérisées au sein de ces dernières par la position dorsale de leur siphon[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Clymeniida (clyménies en français) forment un ordre éteint d'Ammonoidea caractérisées au sein de ces dernières par la position dorsale de leur siphon.
 Des clyménies ont été découvertes en Europe, en Afrique du Nord, au Kazakhstan et en Australie. Elles ont vécu de la fin la fin du Dévonien au tout début du Carbonifère, il y a environ entre 380 et 350 Ma (millions d'années).
 </t>
         </is>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des Ammonoidea de petite taille, de quelques centimètres de diamètre, avec des lignes de sutures simples, du même type que celle des Goniatites, caractéristiques des Ammonoidea du Paléozoïque. La position dorsale du siphon distingue les clyménies des autres groupes d'Ammonoidea.
 </t>
@@ -543,10 +557,12 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'ordre des Clymeniida montre une très grande diversité de formes.
-La classification classique de 1957[2] a été modifiée plusieurs fois. La base de données spécialisée dans les Ammonoidea du Paléozoïque, « GONIAT »[3] donne la classification suivante :
+La classification classique de 1957 a été modifiée plusieurs fois. La base de données spécialisée dans les Ammonoidea du Paléozoïque, « GONIAT » donne la classification suivante :
 Clymeniida :
 Sous-ordre Clymeniina Hyatt, 1884
 Super-famille Clymeniaceae Edwards, 1849
